--- a/ClientResearch/Challenges Research LinkedIn.xlsx
+++ b/ClientResearch/Challenges Research LinkedIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynnyimingzhong/Desktop/CubeStatistica/Business-Development/ClientResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5376CCF1-8564-2F47-A2CA-57C8BB225609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F333E0D7-6361-314F-A8EA-D06F7FE5C1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{84965B0A-4CFD-C543-A4EB-6EB9797C7ABD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="891">
   <si>
     <t>Name</t>
   </si>
@@ -2704,13 +2704,16 @@
   </si>
   <si>
     <t>University of Saskatchewan</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2804,6 +2807,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2825,7 +2836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2857,6 +2868,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3174,7 +3186,7 @@
   <dimension ref="A1:P1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,7 +3206,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="25" t="s">
+        <v>890</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>165</v>
       </c>

--- a/ClientResearch/Challenges Research LinkedIn.xlsx
+++ b/ClientResearch/Challenges Research LinkedIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynnyimingzhong/Desktop/CubeStatistica/Business-Development/ClientResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE590763-4BC7-7649-920C-09B980E6D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4448EC-ABCC-9B48-98AD-F8EE777BEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{84965B0A-4CFD-C543-A4EB-6EB9797C7ABD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="890">
   <si>
     <t>Name</t>
   </si>
@@ -3182,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A604EDDC-8E00-4F4E-9E56-1BFA4FCAA52F}">
   <dimension ref="A1:P1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K219" sqref="K219"/>
+    <sheetView tabSelected="1" topLeftCell="D211" zoomScale="125" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K227" sqref="K227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14021,7 +14021,9 @@
       <c r="N217" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="O217" s="6"/>
+      <c r="O217" s="6" t="s">
+        <v>644</v>
+      </c>
       <c r="P217" s="2"/>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
@@ -14062,7 +14064,7 @@
         <v>7</v>
       </c>
       <c r="L218" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" s="2" t="b">
         <v>0</v>
@@ -14464,7 +14466,7 @@
         <v>31</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="L226" s="12" t="b">
         <v>0</v>
@@ -16309,7 +16311,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="11">
-        <f>'Client List Reachout'!B260</f>
+        <f t="shared" ref="B263:B267" si="21">B262</f>
         <v>44733</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -16337,7 +16339,7 @@
         <v>31</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="L263" s="12" t="b">
         <v>0</v>
@@ -16359,13 +16361,15 @@
         <v>263</v>
       </c>
       <c r="B264" s="11">
-        <f>B263</f>
+        <f t="shared" si="21"/>
         <v>44733</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D264" s="6"/>
+      <c r="D264" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="E264" s="17">
         <v>2021</v>
       </c>
@@ -16385,7 +16389,7 @@
         <v>31</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="L264" s="12" t="b">
         <v>0</v>
@@ -16407,7 +16411,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="11">
-        <f>B264</f>
+        <f t="shared" si="21"/>
         <v>44733</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -16458,7 +16462,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="11">
-        <f>B264</f>
+        <f t="shared" si="21"/>
         <v>44733</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -16506,7 +16510,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="11">
-        <f>B266</f>
+        <f t="shared" si="21"/>
         <v>44733</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -16670,7 +16674,7 @@
         <v>2021</v>
       </c>
       <c r="F270" s="17">
-        <f t="shared" ref="F270:F271" si="21">E270</f>
+        <f t="shared" ref="F270:F271" si="22">E270</f>
         <v>2021</v>
       </c>
       <c r="G270" s="17" t="s">
@@ -16719,7 +16723,7 @@
         <v>2016</v>
       </c>
       <c r="F271" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2016</v>
       </c>
       <c r="G271" s="17" t="s">
@@ -16757,7 +16761,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11">
-        <f t="shared" ref="B272:B280" si="22">B271</f>
+        <f t="shared" ref="B272:B280" si="23">B271</f>
         <v>44733</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -16807,7 +16811,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -16858,7 +16862,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -16871,7 +16875,7 @@
         <v>2020</v>
       </c>
       <c r="F274" s="17">
-        <f t="shared" ref="F274:F277" si="23">E274</f>
+        <f t="shared" ref="F274:F277" si="24">E274</f>
         <v>2020</v>
       </c>
       <c r="G274" s="17" t="s">
@@ -16909,7 +16913,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -16922,7 +16926,7 @@
         <v>2017</v>
       </c>
       <c r="F275" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
       <c r="G275" s="17" t="s">
@@ -16960,7 +16964,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -16973,7 +16977,7 @@
         <v>2017</v>
       </c>
       <c r="F276" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
       <c r="G276" s="17" t="s">
@@ -17011,7 +17015,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -17022,7 +17026,7 @@
         <v>2009</v>
       </c>
       <c r="F277" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2009</v>
       </c>
       <c r="G277" s="17" t="s">
@@ -17060,7 +17064,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -17110,7 +17114,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -17161,7 +17165,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44733</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -17174,7 +17178,7 @@
         <v>2019</v>
       </c>
       <c r="F280" s="17">
-        <f t="shared" ref="F280:F286" si="24">E280</f>
+        <f t="shared" ref="F280:F286" si="25">E280</f>
         <v>2019</v>
       </c>
       <c r="G280" s="17" t="s">
@@ -17225,7 +17229,7 @@
         <v>2020</v>
       </c>
       <c r="F281" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2020</v>
       </c>
       <c r="G281" s="17" t="s">
@@ -17276,7 +17280,7 @@
         <v>2021</v>
       </c>
       <c r="F282" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2021</v>
       </c>
       <c r="G282" s="17" t="s">
@@ -17325,7 +17329,7 @@
         <v>2018</v>
       </c>
       <c r="F283" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
       <c r="G283" s="17" t="s">
@@ -17376,7 +17380,7 @@
         <v>2018</v>
       </c>
       <c r="F284" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2018</v>
       </c>
       <c r="G284" s="17" t="s">
@@ -17425,7 +17429,7 @@
         <v>2019</v>
       </c>
       <c r="F285" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2019</v>
       </c>
       <c r="G285" s="17" t="s">
@@ -17459,7 +17463,7 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <f t="shared" ref="A286:A314" si="25">A285+1</f>
+        <f t="shared" ref="A286:A314" si="26">A285+1</f>
         <v>285</v>
       </c>
       <c r="B286" s="11">
@@ -17476,7 +17480,7 @@
         <v>2019</v>
       </c>
       <c r="F286" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2019</v>
       </c>
       <c r="G286" s="17" t="s">
@@ -17510,7 +17514,7 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>286</v>
       </c>
       <c r="B287" s="11">
@@ -17560,7 +17564,7 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>287</v>
       </c>
       <c r="B288" s="11">
@@ -17610,7 +17614,7 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>288</v>
       </c>
       <c r="B289" s="11">
@@ -17660,7 +17664,7 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>289</v>
       </c>
       <c r="B290" s="11">
@@ -17711,7 +17715,7 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>290</v>
       </c>
       <c r="B291" s="11">
@@ -17728,7 +17732,7 @@
         <v>2021</v>
       </c>
       <c r="F291" s="17">
-        <f t="shared" ref="F291:F295" si="26">E291</f>
+        <f t="shared" ref="F291:F295" si="27">E291</f>
         <v>2021</v>
       </c>
       <c r="G291" s="17" t="s">
@@ -17762,7 +17766,7 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>291</v>
       </c>
       <c r="B292" s="11">
@@ -17779,7 +17783,7 @@
         <v>2020</v>
       </c>
       <c r="F292" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2020</v>
       </c>
       <c r="G292" s="17" t="s">
@@ -17813,7 +17817,7 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>292</v>
       </c>
       <c r="B293" s="11">
@@ -17828,7 +17832,7 @@
         <v>2021</v>
       </c>
       <c r="F293" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2021</v>
       </c>
       <c r="G293" s="17" t="s">
@@ -17862,7 +17866,7 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>293</v>
       </c>
       <c r="B294" s="11">
@@ -17878,7 +17882,7 @@
         <v>2021</v>
       </c>
       <c r="F294" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2021</v>
       </c>
       <c r="G294" s="17" t="s">
@@ -17912,7 +17916,7 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>294</v>
       </c>
       <c r="B295" s="11">
@@ -17928,7 +17932,7 @@
         <v>2001</v>
       </c>
       <c r="F295" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2001</v>
       </c>
       <c r="G295" s="17" t="s">
@@ -17962,7 +17966,7 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>295</v>
       </c>
       <c r="B296" s="11">
@@ -18011,7 +18015,7 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>296</v>
       </c>
       <c r="B297" s="11">
@@ -18061,7 +18065,7 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>297</v>
       </c>
       <c r="B298" s="11">
@@ -18078,7 +18082,7 @@
         <v>2015</v>
       </c>
       <c r="F298" s="17">
-        <f t="shared" ref="F298:F301" si="27">E298</f>
+        <f t="shared" ref="F298:F301" si="28">E298</f>
         <v>2015</v>
       </c>
       <c r="G298" s="17" t="s">
@@ -18112,7 +18116,7 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>298</v>
       </c>
       <c r="B299" s="11">
@@ -18129,7 +18133,7 @@
         <v>2021</v>
       </c>
       <c r="F299" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2021</v>
       </c>
       <c r="G299" s="17" t="s">
@@ -18163,7 +18167,7 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>299</v>
       </c>
       <c r="B300" s="11">
@@ -18178,7 +18182,7 @@
         <v>2019</v>
       </c>
       <c r="F300" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="G300" s="17" t="s">
@@ -18212,11 +18216,11 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>300</v>
       </c>
       <c r="B301" s="11">
-        <f t="shared" ref="B301:B314" si="28">B300</f>
+        <f t="shared" ref="B301:B314" si="29">B300</f>
         <v>44747</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -18229,7 +18233,7 @@
         <v>2019</v>
       </c>
       <c r="F301" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2019</v>
       </c>
       <c r="G301" s="17" t="s">
@@ -18263,11 +18267,11 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>301</v>
       </c>
       <c r="B302" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -18313,11 +18317,11 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>302</v>
       </c>
       <c r="B303" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -18364,11 +18368,11 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>303</v>
       </c>
       <c r="B304" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -18379,7 +18383,7 @@
         <v>2017</v>
       </c>
       <c r="F304" s="17">
-        <f t="shared" ref="F304:F313" si="29">E304</f>
+        <f t="shared" ref="F304:F313" si="30">E304</f>
         <v>2017</v>
       </c>
       <c r="G304" s="17" t="s">
@@ -18413,11 +18417,11 @@
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>304</v>
       </c>
       <c r="B305" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -18428,7 +18432,7 @@
         <v>2021</v>
       </c>
       <c r="F305" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2021</v>
       </c>
       <c r="G305" s="17" t="s">
@@ -18462,11 +18466,11 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>305</v>
       </c>
       <c r="B306" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -18477,7 +18481,7 @@
         <v>2014</v>
       </c>
       <c r="F306" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2014</v>
       </c>
       <c r="G306" s="17" t="s">
@@ -18511,11 +18515,11 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>306</v>
       </c>
       <c r="B307" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -18528,7 +18532,7 @@
         <v>2019</v>
       </c>
       <c r="F307" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2019</v>
       </c>
       <c r="G307" s="17" t="s">
@@ -18562,11 +18566,11 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>307</v>
       </c>
       <c r="B308" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -18577,7 +18581,7 @@
         <v>2020</v>
       </c>
       <c r="F308" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2020</v>
       </c>
       <c r="G308" s="17" t="s">
@@ -18611,11 +18615,11 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>308</v>
       </c>
       <c r="B309" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -18628,7 +18632,7 @@
         <v>2018</v>
       </c>
       <c r="F309" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2018</v>
       </c>
       <c r="G309" s="17" t="s">
@@ -18662,7 +18666,7 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>309</v>
       </c>
       <c r="B310" s="11">
@@ -18679,7 +18683,7 @@
         <v>2017</v>
       </c>
       <c r="F310" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2017</v>
       </c>
       <c r="G310" s="17" t="s">
@@ -18713,11 +18717,11 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>310</v>
       </c>
       <c r="B311" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -18728,7 +18732,7 @@
         <v>2022</v>
       </c>
       <c r="F311" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2022</v>
       </c>
       <c r="G311" s="17" t="s">
@@ -18762,11 +18766,11 @@
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>311</v>
       </c>
       <c r="B312" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -18779,7 +18783,7 @@
         <v>2021</v>
       </c>
       <c r="F312" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2021</v>
       </c>
       <c r="G312" s="17" t="s">
@@ -18813,11 +18817,11 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>312</v>
       </c>
       <c r="B313" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C313" s="2" t="s">
@@ -18830,7 +18834,7 @@
         <v>2022</v>
       </c>
       <c r="F313" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2022</v>
       </c>
       <c r="G313" s="17" t="s">
@@ -18864,11 +18868,11 @@
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>313</v>
       </c>
       <c r="B314" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>44747</v>
       </c>
       <c r="C314" s="2" t="s">

--- a/ClientResearch/Challenges Research LinkedIn.xlsx
+++ b/ClientResearch/Challenges Research LinkedIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynnyimingzhong/Desktop/CubeStatistica/Business-Development/ClientResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4448EC-ABCC-9B48-98AD-F8EE777BEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4EE58-F1C3-F94E-B62D-E3FAFBF29A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{84965B0A-4CFD-C543-A4EB-6EB9797C7ABD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="891">
   <si>
     <t>Name</t>
   </si>
@@ -2704,6 +2704,9 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
   </si>
 </sst>
 </file>
@@ -3182,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A604EDDC-8E00-4F4E-9E56-1BFA4FCAA52F}">
   <dimension ref="A1:P1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D211" zoomScale="125" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3270,7 +3273,7 @@
         <v>2018</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>404</v>
@@ -3318,7 +3321,7 @@
         <v>2016</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>405</v>
@@ -3366,7 +3369,7 @@
         <v>2022</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>405</v>
@@ -3414,7 +3417,7 @@
         <v>2021</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>404</v>
@@ -3462,7 +3465,7 @@
         <v>2021</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>405</v>
@@ -3511,7 +3514,7 @@
         <v>2021</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>405</v>
@@ -3560,7 +3563,7 @@
         <v>2021</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>405</v>
@@ -3609,7 +3612,7 @@
         <v>2017</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>405</v>
@@ -3658,7 +3661,7 @@
         <v>2021</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>405</v>
@@ -3707,7 +3710,7 @@
         <v>2022</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>405</v>
@@ -3756,7 +3759,7 @@
         <v>2022</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>405</v>
@@ -3805,7 +3808,7 @@
         <v>2022</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>405</v>
@@ -3854,7 +3857,7 @@
         <v>2021</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>405</v>
@@ -3903,7 +3906,7 @@
         <v>2022</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>405</v>
@@ -3952,7 +3955,7 @@
         <v>2022</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>405</v>
@@ -4001,7 +4004,7 @@
         <v>2021</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>405</v>
@@ -4050,7 +4053,7 @@
         <v>2021</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>405</v>
@@ -4099,7 +4102,7 @@
         <v>2021</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>405</v>
@@ -4148,7 +4151,7 @@
         <v>2020</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>405</v>
@@ -4197,7 +4200,7 @@
         <v>2019</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>405</v>
@@ -4246,7 +4249,7 @@
         <v>2013</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>405</v>
@@ -4295,7 +4298,7 @@
         <v>2021</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>405</v>
@@ -4344,7 +4347,7 @@
         <v>2020</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>405</v>
@@ -4393,7 +4396,7 @@
         <v>2022</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>404</v>
@@ -4443,7 +4446,7 @@
         <v>2022</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>404</v>
@@ -4493,7 +4496,7 @@
         <v>2021</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>404</v>
@@ -4543,7 +4546,7 @@
         <v>2022</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>405</v>
@@ -4593,7 +4596,7 @@
         <v>2019</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>404</v>
@@ -4643,7 +4646,7 @@
         <v>2021</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>404</v>
@@ -4693,7 +4696,7 @@
         <v>2021</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>404</v>
@@ -4743,7 +4746,7 @@
         <v>2022</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>404</v>
@@ -4793,7 +4796,7 @@
         <v>2022</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>405</v>
@@ -4843,7 +4846,7 @@
         <v>2022</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>405</v>
@@ -4893,7 +4896,7 @@
         <v>2020</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>405</v>
@@ -4943,7 +4946,7 @@
         <v>2022</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>404</v>
@@ -4993,7 +4996,7 @@
         <v>2021</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>404</v>
@@ -5043,7 +5046,7 @@
         <v>2021</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>405</v>
@@ -5093,7 +5096,7 @@
         <v>2018</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>405</v>
@@ -5143,7 +5146,7 @@
         <v>2020</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>404</v>
@@ -5193,7 +5196,7 @@
         <v>2017</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>404</v>
@@ -5243,7 +5246,7 @@
         <v>2020</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>405</v>
@@ -5293,7 +5296,7 @@
         <v>2014</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>405</v>
@@ -5343,7 +5346,7 @@
         <v>2021</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>404</v>
@@ -5393,7 +5396,7 @@
         <v>2022</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>404</v>
@@ -5443,7 +5446,7 @@
         <v>2017</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>405</v>
@@ -5493,7 +5496,7 @@
         <v>2021</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>404</v>
@@ -5543,7 +5546,7 @@
         <v>2018</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>405</v>
@@ -5593,7 +5596,7 @@
         <v>2021</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>404</v>
@@ -5643,7 +5646,7 @@
         <v>2002</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>404</v>
@@ -5693,7 +5696,7 @@
         <v>2022</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>405</v>
@@ -5743,7 +5746,7 @@
         <v>2022</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>405</v>
@@ -5793,7 +5796,7 @@
         <v>2022</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>404</v>
@@ -5843,7 +5846,7 @@
         <v>2019</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>404</v>
@@ -5893,7 +5896,7 @@
         <v>2019</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>405</v>
@@ -5943,7 +5946,7 @@
         <v>2021</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>405</v>
@@ -5993,7 +5996,7 @@
         <v>2022</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>404</v>
@@ -6043,7 +6046,7 @@
         <v>2021</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>404</v>
@@ -6093,7 +6096,7 @@
         <v>2021</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>405</v>
@@ -6143,7 +6146,7 @@
         <v>2022</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>404</v>
@@ -6192,7 +6195,7 @@
         <v>2021</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>404</v>
@@ -6242,7 +6245,7 @@
         <v>2015</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>404</v>
@@ -6292,7 +6295,7 @@
         <v>2020</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>405</v>
@@ -6342,7 +6345,7 @@
         <v>2018</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>405</v>
@@ -6392,7 +6395,7 @@
         <v>2018</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>405</v>
@@ -6442,7 +6445,7 @@
         <v>2020</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>405</v>
@@ -6492,7 +6495,7 @@
         <v>2019</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>404</v>
@@ -6542,7 +6545,7 @@
         <v>2019</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>405</v>
@@ -6592,7 +6595,7 @@
         <v>2018</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>405</v>
@@ -6642,7 +6645,7 @@
         <v>2018</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>404</v>
@@ -6692,7 +6695,7 @@
         <v>2018</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>405</v>
@@ -6742,7 +6745,7 @@
         <v>2018</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>405</v>
@@ -6792,7 +6795,7 @@
         <v>2018</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>405</v>
@@ -6842,7 +6845,7 @@
         <v>2019</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>404</v>
@@ -6892,7 +6895,7 @@
         <v>2018</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>405</v>
@@ -6942,7 +6945,7 @@
         <v>2018</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>404</v>
@@ -6992,7 +6995,7 @@
         <v>2022</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>405</v>
@@ -7042,7 +7045,7 @@
         <v>2018</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>405</v>
@@ -7092,7 +7095,7 @@
         <v>2018</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>405</v>
@@ -7142,7 +7145,7 @@
         <v>2018</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>405</v>
@@ -7192,7 +7195,7 @@
         <v>2018</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>405</v>
@@ -7242,7 +7245,7 @@
         <v>2018</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>405</v>
@@ -7292,7 +7295,7 @@
         <v>2021</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>405</v>
@@ -7342,7 +7345,7 @@
         <v>2018</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>405</v>
@@ -7392,7 +7395,7 @@
         <v>2018</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>405</v>
@@ -7442,7 +7445,7 @@
         <v>2018</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>405</v>
@@ -7492,7 +7495,7 @@
         <v>2021</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>405</v>
@@ -7542,7 +7545,7 @@
         <v>2018</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>405</v>
@@ -7592,7 +7595,7 @@
         <v>2018</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>405</v>
@@ -7642,7 +7645,7 @@
         <v>2018</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>405</v>
@@ -7692,7 +7695,7 @@
         <v>2018</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>405</v>
@@ -7742,7 +7745,7 @@
         <v>2018</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>405</v>
@@ -7792,7 +7795,7 @@
         <v>2018</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>405</v>
@@ -7842,7 +7845,7 @@
         <v>2019</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>405</v>
@@ -7892,7 +7895,7 @@
         <v>2021</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>405</v>
@@ -7942,7 +7945,7 @@
         <v>2020</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>405</v>
@@ -7992,7 +7995,7 @@
         <v>2018</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>405</v>
@@ -8042,7 +8045,7 @@
         <v>2018</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>404</v>
@@ -8092,7 +8095,7 @@
         <v>2018</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>405</v>
@@ -8141,7 +8144,7 @@
         <v>2016</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>405</v>
@@ -8191,7 +8194,7 @@
         <v>2018</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>404</v>
@@ -8241,7 +8244,7 @@
         <v>2017</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>404</v>
@@ -8291,7 +8294,7 @@
         <v>2018</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>405</v>
@@ -8341,7 +8344,7 @@
         <v>2018</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>405</v>
@@ -8391,7 +8394,7 @@
         <v>2018</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>405</v>
@@ -8441,7 +8444,7 @@
         <v>2018</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>405</v>
@@ -8491,7 +8494,7 @@
         <v>2019</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>404</v>
@@ -8541,7 +8544,7 @@
         <v>2016</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>405</v>
@@ -8591,7 +8594,7 @@
         <v>2021</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>404</v>
@@ -8641,7 +8644,7 @@
         <v>2018</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>404</v>
@@ -8690,7 +8693,7 @@
         <v>2018</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>405</v>
@@ -8740,7 +8743,7 @@
         <v>2018</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>405</v>
@@ -8790,7 +8793,7 @@
         <v>2018</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>405</v>
@@ -8840,7 +8843,7 @@
         <v>2020</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>405</v>
@@ -8890,7 +8893,7 @@
         <v>2018</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>405</v>
@@ -8940,7 +8943,7 @@
         <v>2018</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>405</v>
@@ -8990,7 +8993,7 @@
         <v>2018</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>405</v>
@@ -9040,7 +9043,7 @@
         <v>2022</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>405</v>
@@ -9090,7 +9093,7 @@
         <v>2021</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>404</v>
@@ -9140,7 +9143,7 @@
         <v>2018</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>405</v>
@@ -9190,7 +9193,7 @@
         <v>2018</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>405</v>
@@ -9240,7 +9243,7 @@
         <v>2018</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>405</v>
@@ -9290,7 +9293,7 @@
         <v>2018</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>405</v>
@@ -9340,7 +9343,7 @@
         <v>2018</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>405</v>
@@ -9390,7 +9393,7 @@
         <v>2018</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>405</v>
@@ -9440,7 +9443,7 @@
         <v>2018</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>405</v>
@@ -9490,7 +9493,7 @@
         <v>2018</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>405</v>
@@ -9540,7 +9543,7 @@
         <v>2018</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>404</v>
@@ -9590,7 +9593,7 @@
         <v>2018</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>405</v>
@@ -9640,7 +9643,7 @@
         <v>2018</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>405</v>
@@ -9690,7 +9693,7 @@
         <v>2018</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>405</v>
@@ -9740,7 +9743,7 @@
         <v>2018</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>405</v>
@@ -9790,7 +9793,7 @@
         <v>2018</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>405</v>
@@ -9840,7 +9843,7 @@
         <v>2018</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>405</v>
@@ -9890,7 +9893,7 @@
         <v>2018</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>405</v>
@@ -9940,7 +9943,7 @@
         <v>2018</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>405</v>
@@ -9990,7 +9993,7 @@
         <v>2018</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>405</v>
@@ -10040,7 +10043,7 @@
         <v>2018</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>404</v>
@@ -10090,7 +10093,7 @@
         <v>2018</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>405</v>
@@ -10140,7 +10143,7 @@
         <v>2018</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>405</v>
@@ -10190,7 +10193,7 @@
         <v>2018</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>404</v>
@@ -10240,7 +10243,7 @@
         <v>2018</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>405</v>
@@ -10290,7 +10293,7 @@
         <v>2018</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>405</v>
@@ -10340,7 +10343,7 @@
         <v>2018</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>405</v>
@@ -10389,7 +10392,7 @@
         <v>2018</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>405</v>
@@ -10439,7 +10442,7 @@
         <v>2018</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>405</v>
@@ -10489,7 +10492,7 @@
         <v>2018</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>405</v>
@@ -10539,7 +10542,7 @@
         <v>2018</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>405</v>
@@ -10589,7 +10592,7 @@
         <v>2018</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>405</v>
@@ -10639,7 +10642,7 @@
         <v>2018</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>405</v>
@@ -10689,7 +10692,7 @@
         <v>2018</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>405</v>
@@ -10739,7 +10742,7 @@
         <v>2022</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>405</v>
@@ -10789,7 +10792,7 @@
         <v>2018</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>405</v>
@@ -10839,7 +10842,7 @@
         <v>2021</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>405</v>
@@ -10887,7 +10890,7 @@
         <v>2018</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>405</v>
@@ -10937,7 +10940,7 @@
         <v>2018</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>405</v>
@@ -10987,7 +10990,7 @@
         <v>2017</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>405</v>
@@ -11087,7 +11090,7 @@
         <v>2014</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>404</v>
@@ -11136,7 +11139,7 @@
         <v>2019</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>405</v>
@@ -11185,7 +11188,7 @@
         <v>2021</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>740</v>
@@ -11234,7 +11237,7 @@
         <v>2017</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>405</v>
@@ -11283,7 +11286,7 @@
         <v>2022</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>405</v>
@@ -11332,7 +11335,7 @@
         <v>2020</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>404</v>
@@ -11381,7 +11384,7 @@
         <v>2020</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>405</v>
@@ -11430,7 +11433,7 @@
         <v>2018</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>405</v>
@@ -11480,7 +11483,7 @@
         <v>2015</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>404</v>
@@ -11530,7 +11533,7 @@
         <v>2015</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>405</v>
@@ -11580,7 +11583,7 @@
         <v>2022</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>405</v>
@@ -11630,7 +11633,7 @@
         <v>2015</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>404</v>
@@ -11680,7 +11683,7 @@
         <v>2019</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>404</v>
@@ -11730,7 +11733,7 @@
         <v>2018</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>404</v>
@@ -11780,7 +11783,7 @@
         <v>2018</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>405</v>
@@ -11830,7 +11833,7 @@
         <v>2019</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>405</v>
@@ -11880,7 +11883,7 @@
         <v>2017</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>405</v>
@@ -11930,7 +11933,7 @@
         <v>2020</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>404</v>
@@ -11980,7 +11983,7 @@
         <v>2021</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>404</v>
@@ -12030,7 +12033,7 @@
         <v>2017</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>404</v>
@@ -12079,7 +12082,7 @@
         <v>2021</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>405</v>
@@ -12129,7 +12132,7 @@
         <v>2021</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>404</v>
@@ -12179,7 +12182,7 @@
         <v>2022</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>404</v>
@@ -12229,7 +12232,7 @@
         <v>2022</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>404</v>
@@ -12279,7 +12282,7 @@
         <v>2022</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>404</v>
@@ -12329,7 +12332,7 @@
         <v>2018</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>405</v>
@@ -12380,7 +12383,7 @@
         <v>1992</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>404</v>
@@ -12580,7 +12583,7 @@
         <v>2022</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>404</v>
@@ -12731,7 +12734,7 @@
         <v>2018</v>
       </c>
       <c r="G192" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>405</v>
@@ -12781,7 +12784,7 @@
         <v>2000</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>405</v>
@@ -12934,7 +12937,7 @@
         <v>2021</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>404</v>
@@ -12985,7 +12988,7 @@
         <v>2018</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>405</v>
@@ -13188,7 +13191,7 @@
         <v>2021</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>405</v>
@@ -13238,7 +13241,7 @@
         <v>2016</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>405</v>
@@ -13390,7 +13393,7 @@
         <v>2018</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H205" s="6" t="s">
         <v>404</v>
@@ -13440,7 +13443,7 @@
         <v>2007</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H206" s="6" t="s">
         <v>404</v>
@@ -13491,7 +13494,7 @@
         <v>2012</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>405</v>
@@ -13643,7 +13646,7 @@
         <v>2010</v>
       </c>
       <c r="G210" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>404</v>
@@ -13846,7 +13849,7 @@
         <v>2020</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H214" s="6" t="s">
         <v>404</v>
@@ -13948,7 +13951,7 @@
         <v>2020</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>405</v>
@@ -14352,7 +14355,7 @@
         <v>2019</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H224" s="6" t="s">
         <v>405</v>
@@ -14403,7 +14406,7 @@
         <v>2022</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H225" s="6" t="s">
         <v>405</v>
@@ -14454,7 +14457,7 @@
         <v>2018</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>405</v>
@@ -14505,7 +14508,7 @@
         <v>2019</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H227" s="6" t="s">
         <v>405</v>
@@ -14556,7 +14559,7 @@
         <v>2022</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H228" s="6" t="s">
         <v>405</v>
@@ -14709,7 +14712,7 @@
         <v>2009</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H231" s="6" t="s">
         <v>405</v>
@@ -14759,7 +14762,7 @@
         <v>2020</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H232" s="6" t="s">
         <v>405</v>
@@ -14809,7 +14812,7 @@
         <v>2021</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H233" s="6" t="s">
         <v>404</v>
@@ -14911,7 +14914,7 @@
         <v>2018</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H235" s="6" t="s">
         <v>405</v>
@@ -14961,7 +14964,7 @@
         <v>2019</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H236" s="6" t="s">
         <v>404</v>
@@ -15011,7 +15014,7 @@
         <v>2020</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>405</v>
@@ -15113,7 +15116,7 @@
         <v>2014</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H239" s="6" t="s">
         <v>404</v>
@@ -15164,7 +15167,7 @@
         <v>2013</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H240" s="6" t="s">
         <v>405</v>
@@ -15266,7 +15269,7 @@
         <v>2011</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H242" s="6" t="s">
         <v>405</v>
@@ -15672,7 +15675,7 @@
         <v>2019</v>
       </c>
       <c r="G250" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H250" s="6" t="s">
         <v>405</v>
@@ -15723,7 +15726,7 @@
         <v>2011</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>405</v>
@@ -15873,7 +15876,7 @@
         <v>2013</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>405</v>
@@ -15923,7 +15926,7 @@
         <v>2015</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>405</v>
@@ -16227,7 +16230,7 @@
         <v>2021</v>
       </c>
       <c r="G261" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H261" s="6" t="s">
         <v>404</v>
@@ -16327,7 +16330,7 @@
         <v>2019</v>
       </c>
       <c r="G263" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H263" s="6" t="s">
         <v>404</v>
@@ -16377,7 +16380,7 @@
         <v>2021</v>
       </c>
       <c r="G264" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H264" s="6" t="s">
         <v>405</v>
@@ -16428,7 +16431,7 @@
         <v>2022</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H265" s="6" t="s">
         <v>405</v>
@@ -16476,7 +16479,7 @@
         <v>2021</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H266" s="6" t="s">
         <v>405</v>
@@ -16777,7 +16780,7 @@
         <v>2020</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H272" s="6" t="s">
         <v>404</v>
@@ -16879,7 +16882,7 @@
         <v>2020</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H274" s="6" t="s">
         <v>404</v>
@@ -17080,7 +17083,7 @@
         <v>2021</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H278" s="6" t="s">
         <v>405</v>
@@ -17182,7 +17185,7 @@
         <v>2019</v>
       </c>
       <c r="G280" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H280" s="6" t="s">
         <v>405</v>
@@ -17284,7 +17287,7 @@
         <v>2021</v>
       </c>
       <c r="G282" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H282" s="6" t="s">
         <v>405</v>
@@ -17333,7 +17336,7 @@
         <v>2018</v>
       </c>
       <c r="G283" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H283" s="6" t="s">
         <v>405</v>
@@ -17384,7 +17387,7 @@
         <v>2018</v>
       </c>
       <c r="G284" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H284" s="6" t="s">
         <v>404</v>
@@ -17534,7 +17537,7 @@
         <v>2022</v>
       </c>
       <c r="G287" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H287" s="6" t="s">
         <v>405</v>
@@ -17584,7 +17587,7 @@
         <v>2020</v>
       </c>
       <c r="G288" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H288" s="6" t="s">
         <v>405</v>
@@ -17685,7 +17688,7 @@
         <v>2021</v>
       </c>
       <c r="G290" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H290" s="6" t="s">
         <v>404</v>
@@ -17936,7 +17939,7 @@
         <v>2001</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H295" s="6" t="s">
         <v>405</v>
@@ -17985,7 +17988,7 @@
         <v>2022</v>
       </c>
       <c r="G296" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H296" s="6" t="s">
         <v>405</v>
@@ -18035,7 +18038,7 @@
         <v>2015</v>
       </c>
       <c r="G297" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H297" s="6" t="s">
         <v>405</v>
@@ -18186,7 +18189,7 @@
         <v>2019</v>
       </c>
       <c r="G300" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H300" s="6" t="s">
         <v>404</v>
@@ -18436,7 +18439,7 @@
         <v>2021</v>
       </c>
       <c r="G305" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H305" s="6" t="s">
         <v>405</v>
@@ -18485,7 +18488,7 @@
         <v>2014</v>
       </c>
       <c r="G306" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H306" s="6" t="s">
         <v>405</v>
@@ -18536,7 +18539,7 @@
         <v>2019</v>
       </c>
       <c r="G307" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H307" s="6" t="s">
         <v>404</v>
@@ -18585,7 +18588,7 @@
         <v>2020</v>
       </c>
       <c r="G308" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H308" s="6" t="s">
         <v>405</v>
@@ -18736,7 +18739,7 @@
         <v>2022</v>
       </c>
       <c r="G311" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H311" s="6" t="s">
         <v>405</v>
@@ -18787,7 +18790,7 @@
         <v>2021</v>
       </c>
       <c r="G312" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H312" s="6" t="s">
         <v>405</v>
@@ -18838,7 +18841,7 @@
         <v>2022</v>
       </c>
       <c r="G313" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H313" s="6" t="s">
         <v>404</v>
@@ -18888,7 +18891,7 @@
         <v>2022</v>
       </c>
       <c r="G314" s="17" t="s">
-        <v>408</v>
+        <v>890</v>
       </c>
       <c r="H314" s="6" t="s">
         <v>405</v>
